--- a/BackTest/2019-10-27 BackTest BCH.xlsx
+++ b/BackTest/2019-10-27 BackTest BCH.xlsx
@@ -5351,20 +5351,14 @@
         <v>285033.3333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>284900</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5392,20 +5386,14 @@
         <v>284966.6666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>285500</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5433,20 +5421,14 @@
         <v>285166.6666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>285100</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5474,20 +5456,14 @@
         <v>285533.3333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5515,20 +5491,14 @@
         <v>285733.3333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>285600</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5562,12 +5532,12 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>285500</v>
+        <v>285600</v>
       </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -5685,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>286200</v>
+        <v>286300</v>
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
@@ -5726,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>285600</v>
+        <v>286000</v>
       </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
@@ -5761,14 +5731,12 @@
         <v>285500</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>285200</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5802,14 +5770,12 @@
         <v>285166.6666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>285100</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5843,14 +5809,12 @@
         <v>285000</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>285000</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5884,14 +5848,12 @@
         <v>284633.3333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>284300</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -5925,14 +5887,12 @@
         <v>284300</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>284200</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -5966,14 +5926,12 @@
         <v>284366.6666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>284100</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6007,14 +5965,12 @@
         <v>284666.6666666667</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>284600</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6048,14 +6004,12 @@
         <v>285033.3333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>285000</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6089,14 +6043,12 @@
         <v>285366.6666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>285300</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6130,14 +6082,12 @@
         <v>285866.6666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>286100</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6171,14 +6121,12 @@
         <v>286266.6666666667</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>286300</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6212,14 +6160,12 @@
         <v>286233.3333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>285900</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6253,14 +6199,12 @@
         <v>286400</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>286400</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6294,14 +6238,12 @@
         <v>286466.6666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>286600</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6335,14 +6277,12 @@
         <v>286966.6666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>286700</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6376,14 +6316,12 @@
         <v>286866.6666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>287400</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6417,14 +6355,12 @@
         <v>287166.6666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>286700</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6458,14 +6394,12 @@
         <v>287166.6666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>287400</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6499,14 +6433,12 @@
         <v>287733.3333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>287800</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6540,14 +6472,12 @@
         <v>288333.3333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>288300</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6581,14 +6511,12 @@
         <v>288866.6666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>289000</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -7168,14 +7096,12 @@
         <v>286333.3333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>286300</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7209,14 +7135,12 @@
         <v>286800</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>287300</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7250,14 +7174,12 @@
         <v>287066.6666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>287000</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7291,14 +7213,12 @@
         <v>287700</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>288400</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7332,14 +7252,12 @@
         <v>287800</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>288500</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7997,14 +7915,12 @@
         <v>286933.3333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>287000</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -8038,14 +7954,12 @@
         <v>286933.3333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>286500</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -8079,14 +7993,12 @@
         <v>286666.6666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>286500</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -8120,14 +8032,12 @@
         <v>286400</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>286200</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -8161,14 +8071,12 @@
         <v>286566.6666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>285800</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8202,14 +8110,12 @@
         <v>286866.6666666667</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>287500</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8360,14 +8266,12 @@
         <v>286433.3333333333</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>286500</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8401,14 +8305,12 @@
         <v>286400</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>286400</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8442,14 +8344,12 @@
         <v>286366.6666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8483,14 +8383,12 @@
         <v>286333.3333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>286400</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8524,14 +8422,12 @@
         <v>286366.6666666667</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8565,14 +8461,12 @@
         <v>286366.6666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8606,14 +8500,12 @@
         <v>286233.3333333333</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8647,14 +8539,12 @@
         <v>286000</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8688,14 +8578,12 @@
         <v>285866.6666666667</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>285700</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8729,14 +8617,12 @@
         <v>285633.3333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>285800</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8770,14 +8656,12 @@
         <v>285500</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>285600</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8811,14 +8695,12 @@
         <v>285466.6666666667</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>285500</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -8852,14 +8734,12 @@
         <v>285400</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>285200</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -8893,14 +8773,12 @@
         <v>285366.6666666667</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>285600</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -8934,14 +8812,12 @@
         <v>285333.3333333333</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>285400</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -9014,14 +8890,12 @@
         <v>285300</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>285300</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -9055,14 +8929,12 @@
         <v>285133.3333333333</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>285200</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9096,14 +8968,12 @@
         <v>284966.6666666667</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>284700</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9137,14 +9007,12 @@
         <v>284633.3333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>284700</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -9178,14 +9046,12 @@
         <v>283833.3333333333</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>284300</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -9219,14 +9085,12 @@
         <v>284100</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>282500</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -9260,14 +9124,12 @@
         <v>284433.3333333333</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>285500</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -10666,14 +10528,12 @@
         <v>286366.6666666667</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>286200</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
@@ -10707,14 +10567,12 @@
         <v>286400</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>286200</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
@@ -10748,14 +10606,12 @@
         <v>286433.3333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>286400</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
@@ -10789,14 +10645,12 @@
         <v>286500</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>286400</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
@@ -10830,14 +10684,12 @@
         <v>286266.6666666667</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>286400</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
@@ -10871,14 +10723,12 @@
         <v>286300</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>286600</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
@@ -10912,14 +10762,12 @@
         <v>286400</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>287000</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
@@ -10953,14 +10801,12 @@
         <v>286833.3333333333</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>287300</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
@@ -10994,14 +10840,12 @@
         <v>287000</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>287300</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -11035,14 +10879,12 @@
         <v>287200</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>287300</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
@@ -11076,14 +10918,12 @@
         <v>287133.3333333333</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>287100</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
@@ -11117,14 +10957,12 @@
         <v>287233.3333333333</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>287300</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
@@ -11158,14 +10996,12 @@
         <v>287233.3333333333</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>287200</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
@@ -11199,14 +11035,12 @@
         <v>287366.6666666667</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>287400</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -11240,14 +11074,12 @@
         <v>287400</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>287500</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
@@ -11437,14 +11269,12 @@
         <v>286733.3333333333</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>286900</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -11478,14 +11308,12 @@
         <v>286666.6666666667</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>286700</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -11519,14 +11347,12 @@
         <v>286800</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>286700</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -11560,14 +11386,12 @@
         <v>286866.6666666667</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>287400</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
@@ -11601,14 +11425,12 @@
         <v>287033.3333333333</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>287100</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -11642,14 +11464,12 @@
         <v>287200</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>287800</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -11683,14 +11503,12 @@
         <v>287266.6666666667</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>287200</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -19677,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
@@ -19712,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
@@ -20899,14 +20717,20 @@
         <v>290733.3333333333</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>290800</v>
+      </c>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20934,14 +20758,20 @@
         <v>290533.3333333333</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>290600</v>
+      </c>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20969,14 +20799,20 @@
         <v>290433.3333333333</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>290200</v>
+      </c>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -21004,14 +20840,20 @@
         <v>290533.3333333333</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>290500</v>
+      </c>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -21046,7 +20888,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -21081,7 +20927,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21116,7 +20966,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21151,7 +21005,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21186,7 +21044,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21221,7 +21083,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21256,7 +21122,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21291,7 +21161,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21326,7 +21200,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21361,7 +21239,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21396,7 +21278,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21431,7 +21317,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21466,7 +21356,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21501,7 +21395,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21536,7 +21434,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21571,7 +21473,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21606,7 +21512,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +21551,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21676,7 +21590,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21711,7 +21629,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21746,7 +21668,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21781,7 +21707,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21816,7 +21746,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21851,7 +21785,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21886,7 +21824,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21921,7 +21863,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21956,7 +21902,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21991,7 +21941,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22026,7 +21980,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22061,7 +22019,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22096,7 +22058,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22131,7 +22097,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22166,7 +22136,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22201,7 +22175,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22236,7 +22214,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22271,7 +22253,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22306,7 +22292,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22341,7 +22331,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22376,7 +22370,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22411,7 +22409,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22446,7 +22448,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22481,7 +22487,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22516,7 +22526,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22551,7 +22565,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22586,7 +22604,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22621,7 +22643,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22656,7 +22682,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22691,7 +22721,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22726,7 +22760,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22761,7 +22799,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +22838,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22831,7 +22877,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22866,7 +22916,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22901,7 +22955,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22936,7 +22994,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22971,7 +23033,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -23006,7 +23072,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23041,7 +23111,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23076,7 +23150,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23111,7 +23189,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23146,7 +23228,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23181,7 +23267,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23216,7 +23306,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23251,7 +23345,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23286,7 +23384,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23321,7 +23423,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23356,7 +23462,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23391,7 +23501,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23426,7 +23540,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23461,7 +23579,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23496,7 +23618,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23531,7 +23657,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23566,7 +23696,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23601,7 +23735,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23636,7 +23774,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23671,7 +23813,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23706,7 +23852,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23741,7 +23891,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23776,7 +23930,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23811,7 +23969,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23846,7 +24008,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23881,7 +24047,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23916,7 +24086,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24125,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23986,7 +24164,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -24021,7 +24203,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -24056,7 +24242,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -24091,7 +24281,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -24126,7 +24320,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24161,7 +24359,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24196,7 +24398,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24231,7 +24437,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24266,7 +24476,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24301,7 +24515,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24336,7 +24554,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -24371,7 +24593,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24406,7 +24632,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24441,7 +24671,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -24476,7 +24710,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24511,7 +24749,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24546,7 +24788,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24581,7 +24827,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24616,7 +24866,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24651,7 +24905,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24686,7 +24944,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24721,7 +24983,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24756,7 +25022,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -24791,7 +25061,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -24826,7 +25100,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -24861,7 +25139,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -24896,7 +25178,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24931,7 +25217,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24966,7 +25256,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -25001,7 +25295,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -25036,7 +25334,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -25071,7 +25373,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -25106,7 +25412,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -25141,7 +25451,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -25176,7 +25490,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -25211,7 +25529,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -25246,7 +25568,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -25281,7 +25607,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -25316,7 +25646,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -25351,7 +25685,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -25386,7 +25724,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -25421,7 +25763,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25456,7 +25802,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25491,7 +25841,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25526,7 +25880,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25561,7 +25919,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25596,7 +25958,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25631,7 +25997,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25666,7 +26036,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25701,7 +26075,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25736,7 +26114,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25771,7 +26153,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25806,7 +26192,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25834,14 +26224,20 @@
         <v>286500</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>286300</v>
+      </c>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25869,14 +26265,20 @@
         <v>286466.6666666667</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
       </c>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>286400</v>
+      </c>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25904,14 +26306,20 @@
         <v>286666.6666666667</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>286700</v>
+      </c>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25946,7 +26354,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25981,7 +26393,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -26016,7 +26432,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -26051,7 +26471,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -26086,7 +26510,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -26121,7 +26549,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -26156,7 +26588,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -26191,7 +26627,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -26226,7 +26666,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26705,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26296,7 +26744,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26331,7 +26783,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26366,7 +26822,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26401,7 +26861,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26436,7 +26900,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26471,7 +26939,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26499,18 +26971,16 @@
         <v>286100</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>286100</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M700" t="n">
@@ -26540,14 +27010,12 @@
         <v>285900</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>285700</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr">
         <is>
@@ -26581,14 +27049,12 @@
         <v>285666.6666666667</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="n">
-        <v>285500</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr">
         <is>
@@ -26622,14 +27088,12 @@
         <v>285700</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="n">
-        <v>285500</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
@@ -26663,14 +27127,12 @@
         <v>285866.6666666667</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
@@ -26704,14 +27166,12 @@
         <v>286033.3333333333</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="n">
-        <v>286300</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr">
         <is>
@@ -26745,14 +27205,12 @@
         <v>285866.6666666667</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="n">
-        <v>285900</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr">
         <is>
@@ -26786,14 +27244,12 @@
         <v>285700</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>285600</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
@@ -26827,14 +27283,12 @@
         <v>285500</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>285500</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
@@ -26868,14 +27322,12 @@
         <v>285500</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>285400</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
@@ -26909,14 +27361,12 @@
         <v>285933.3333333333</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>286000</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
@@ -26950,14 +27400,12 @@
         <v>286433.3333333333</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>286900</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>
@@ -26991,14 +27439,12 @@
         <v>286933.3333333333</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>286700</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr">
         <is>
@@ -27032,14 +27478,12 @@
         <v>286933.3333333333</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>286800</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr">
         <is>
@@ -27073,14 +27517,12 @@
         <v>287000</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>286600</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
@@ -27114,14 +27556,12 @@
         <v>287000</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>287100</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
@@ -27155,14 +27595,12 @@
         <v>287100</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>287000</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
@@ -27196,14 +27634,12 @@
         <v>287033.3333333333</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>287000</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
@@ -27237,14 +27673,12 @@
         <v>286900</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>287000</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr">
         <is>
@@ -27278,14 +27712,12 @@
         <v>287000</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>287100</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
@@ -27319,14 +27751,12 @@
         <v>287233.3333333333</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>287500</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
@@ -27360,14 +27790,12 @@
         <v>287500</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>287500</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
@@ -27401,14 +27829,12 @@
         <v>287533.3333333333</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="n">
-        <v>287500</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
@@ -27442,14 +27868,12 @@
         <v>287400</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>287300</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr">
         <is>
@@ -36612,16 +37036,18 @@
         <v>0</v>
       </c>
       <c r="I958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
       <c r="L958" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M958" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M958" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="1" t="n">
@@ -36653,7 +37079,11 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -36688,7 +37118,11 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -36723,7 +37157,11 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr"/>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -36758,7 +37196,11 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -36793,7 +37235,11 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr"/>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -36828,7 +37274,11 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -36863,7 +37313,11 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -36898,7 +37352,11 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -36933,7 +37391,11 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -36968,7 +37430,11 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -37003,7 +37469,11 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -37038,7 +37508,11 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr"/>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -37073,7 +37547,11 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -37108,7 +37586,11 @@
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr"/>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -37143,7 +37625,11 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr"/>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -37178,7 +37664,11 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr"/>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -37213,7 +37703,11 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr"/>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -37248,7 +37742,11 @@
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr"/>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -37283,7 +37781,11 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr"/>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -37318,7 +37820,11 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr"/>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -37353,7 +37859,11 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr"/>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -37388,7 +37898,11 @@
       </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
-      <c r="L980" t="inlineStr"/>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M980" t="n">
         <v>1</v>
       </c>
@@ -37423,7 +37937,11 @@
       </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
-      <c r="L981" t="inlineStr"/>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -37458,7 +37976,11 @@
       </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr"/>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -37493,7 +38015,11 @@
       </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr"/>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -37528,7 +38054,11 @@
       </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr"/>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -37563,7 +38093,11 @@
       </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr"/>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -37598,7 +38132,11 @@
       </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr"/>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -37633,7 +38171,11 @@
       </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
-      <c r="L987" t="inlineStr"/>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -37668,7 +38210,11 @@
       </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
-      <c r="L988" t="inlineStr"/>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -37703,7 +38249,11 @@
       </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
-      <c r="L989" t="inlineStr"/>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -37738,7 +38288,11 @@
       </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
-      <c r="L990" t="inlineStr"/>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -37773,7 +38327,11 @@
       </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
-      <c r="L991" t="inlineStr"/>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -37808,7 +38366,11 @@
       </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
-      <c r="L992" t="inlineStr"/>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -37843,7 +38405,11 @@
       </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
-      <c r="L993" t="inlineStr"/>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -37878,7 +38444,11 @@
       </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
-      <c r="L994" t="inlineStr"/>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -37913,7 +38483,11 @@
       </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr"/>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -37948,7 +38522,11 @@
       </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
-      <c r="L996" t="inlineStr"/>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -37983,7 +38561,11 @@
       </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
-      <c r="L997" t="inlineStr"/>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -38018,7 +38600,11 @@
       </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
-      <c r="L998" t="inlineStr"/>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -38053,7 +38639,11 @@
       </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
-      <c r="L999" t="inlineStr"/>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M999" t="n">
         <v>1</v>
       </c>
@@ -38088,7 +38678,11 @@
       </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
-      <c r="L1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1000" t="n">
         <v>1</v>
       </c>
@@ -38123,7 +38717,11 @@
       </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
-      <c r="L1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1001" t="n">
         <v>1</v>
       </c>
@@ -38158,7 +38756,11 @@
       </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
-      <c r="L1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1002" t="n">
         <v>1</v>
       </c>
@@ -38193,7 +38795,11 @@
       </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
-      <c r="L1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1003" t="n">
         <v>1</v>
       </c>
@@ -38228,7 +38834,11 @@
       </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
-      <c r="L1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1004" t="n">
         <v>1</v>
       </c>
@@ -38263,7 +38873,11 @@
       </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
-      <c r="L1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1005" t="n">
         <v>1</v>
       </c>
@@ -38298,7 +38912,11 @@
       </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
-      <c r="L1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1006" t="n">
         <v>1</v>
       </c>
@@ -38333,7 +38951,11 @@
       </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
-      <c r="L1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1007" t="n">
         <v>1</v>
       </c>
@@ -38368,7 +38990,11 @@
       </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
-      <c r="L1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1008" t="n">
         <v>1</v>
       </c>
@@ -38403,7 +39029,11 @@
       </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
-      <c r="L1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1009" t="n">
         <v>1</v>
       </c>
@@ -38438,7 +39068,11 @@
       </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
-      <c r="L1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1010" t="n">
         <v>1</v>
       </c>
@@ -38473,7 +39107,11 @@
       </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr"/>
-      <c r="L1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1011" t="n">
         <v>1</v>
       </c>
@@ -38508,7 +39146,11 @@
       </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr"/>
-      <c r="L1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1012" t="n">
         <v>1</v>
       </c>
@@ -38543,7 +39185,11 @@
       </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr"/>
-      <c r="L1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1013" t="n">
         <v>1</v>
       </c>
@@ -38578,7 +39224,11 @@
       </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr"/>
-      <c r="L1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1014" t="n">
         <v>1</v>
       </c>
@@ -38613,7 +39263,11 @@
       </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr"/>
-      <c r="L1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1015" t="n">
         <v>1</v>
       </c>
@@ -38648,7 +39302,11 @@
       </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
-      <c r="L1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1016" t="n">
         <v>1</v>
       </c>
@@ -38683,7 +39341,11 @@
       </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
-      <c r="L1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1017" t="n">
         <v>1</v>
       </c>
@@ -38718,7 +39380,11 @@
       </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
-      <c r="L1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1018" t="n">
         <v>1</v>
       </c>
@@ -38753,7 +39419,11 @@
       </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
-      <c r="L1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1019" t="n">
         <v>1</v>
       </c>
@@ -38788,7 +39458,11 @@
       </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
-      <c r="L1020" t="inlineStr"/>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1020" t="n">
         <v>1</v>
       </c>
@@ -38823,7 +39497,11 @@
       </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
-      <c r="L1021" t="inlineStr"/>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1021" t="n">
         <v>1</v>
       </c>
@@ -38858,7 +39536,11 @@
       </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
-      <c r="L1022" t="inlineStr"/>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1022" t="n">
         <v>1</v>
       </c>
@@ -38893,7 +39575,11 @@
       </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
-      <c r="L1023" t="inlineStr"/>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1023" t="n">
         <v>1</v>
       </c>
@@ -38928,7 +39614,11 @@
       </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
-      <c r="L1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1024" t="n">
         <v>1</v>
       </c>
@@ -38963,7 +39653,11 @@
       </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
-      <c r="L1025" t="inlineStr"/>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1025" t="n">
         <v>1</v>
       </c>
@@ -38998,7 +39692,11 @@
       </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
-      <c r="L1026" t="inlineStr"/>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1026" t="n">
         <v>1</v>
       </c>
@@ -39033,7 +39731,11 @@
       </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
-      <c r="L1027" t="inlineStr"/>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1027" t="n">
         <v>1</v>
       </c>
@@ -39068,7 +39770,11 @@
       </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
-      <c r="L1028" t="inlineStr"/>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1028" t="n">
         <v>1</v>
       </c>
@@ -39103,7 +39809,11 @@
       </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
-      <c r="L1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -39138,7 +39848,11 @@
       </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
-      <c r="L1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -39173,7 +39887,11 @@
       </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
-      <c r="L1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -39208,7 +39926,11 @@
       </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -39243,7 +39965,11 @@
       </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -39278,7 +40004,11 @@
       </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -39313,7 +40043,11 @@
       </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
-      <c r="L1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -39348,7 +40082,11 @@
       </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
-      <c r="L1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -39383,7 +40121,11 @@
       </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
-      <c r="L1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -39418,7 +40160,11 @@
       </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
-      <c r="L1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1038" t="n">
         <v>1</v>
       </c>
@@ -39453,7 +40199,11 @@
       </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
-      <c r="L1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1039" t="n">
         <v>1</v>
       </c>
@@ -39488,7 +40238,11 @@
       </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
-      <c r="L1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1040" t="n">
         <v>1</v>
       </c>
@@ -39523,7 +40277,11 @@
       </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
-      <c r="L1041" t="inlineStr"/>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1041" t="n">
         <v>1</v>
       </c>
@@ -39558,7 +40316,11 @@
       </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
-      <c r="L1042" t="inlineStr"/>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1042" t="n">
         <v>1</v>
       </c>
@@ -39593,7 +40355,11 @@
       </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
-      <c r="L1043" t="inlineStr"/>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1043" t="n">
         <v>1</v>
       </c>
@@ -39628,7 +40394,11 @@
       </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
-      <c r="L1044" t="inlineStr"/>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1044" t="n">
         <v>1</v>
       </c>
@@ -39663,7 +40433,11 @@
       </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
-      <c r="L1045" t="inlineStr"/>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1045" t="n">
         <v>1</v>
       </c>
@@ -39698,7 +40472,11 @@
       </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
-      <c r="L1046" t="inlineStr"/>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1046" t="n">
         <v>1</v>
       </c>
@@ -39733,7 +40511,11 @@
       </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
-      <c r="L1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1047" t="n">
         <v>1</v>
       </c>
@@ -39768,7 +40550,11 @@
       </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
-      <c r="L1048" t="inlineStr"/>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1048" t="n">
         <v>1</v>
       </c>
@@ -39803,7 +40589,11 @@
       </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
-      <c r="L1049" t="inlineStr"/>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1049" t="n">
         <v>1</v>
       </c>
@@ -39838,7 +40628,11 @@
       </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
-      <c r="L1050" t="inlineStr"/>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1050" t="n">
         <v>1</v>
       </c>
@@ -39873,7 +40667,11 @@
       </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
-      <c r="L1051" t="inlineStr"/>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1051" t="n">
         <v>1</v>
       </c>
@@ -39908,7 +40706,11 @@
       </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
-      <c r="L1052" t="inlineStr"/>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1052" t="n">
         <v>1</v>
       </c>
@@ -39943,7 +40745,11 @@
       </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
-      <c r="L1053" t="inlineStr"/>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1053" t="n">
         <v>1</v>
       </c>
@@ -39978,7 +40784,11 @@
       </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="inlineStr"/>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1054" t="n">
         <v>1</v>
       </c>
@@ -40013,7 +40823,11 @@
       </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
-      <c r="L1055" t="inlineStr"/>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1055" t="n">
         <v>1</v>
       </c>
@@ -40048,7 +40862,11 @@
       </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
-      <c r="L1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1056" t="n">
         <v>1</v>
       </c>
@@ -40083,7 +40901,11 @@
       </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
-      <c r="L1057" t="inlineStr"/>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1057" t="n">
         <v>1</v>
       </c>
@@ -40118,7 +40940,11 @@
       </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
-      <c r="L1058" t="inlineStr"/>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1058" t="n">
         <v>1</v>
       </c>
@@ -40153,7 +40979,11 @@
       </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
-      <c r="L1059" t="inlineStr"/>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1059" t="n">
         <v>1</v>
       </c>
@@ -40188,7 +41018,11 @@
       </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
-      <c r="L1060" t="inlineStr"/>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1060" t="n">
         <v>1</v>
       </c>
@@ -40223,7 +41057,11 @@
       </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr"/>
-      <c r="L1061" t="inlineStr"/>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1061" t="n">
         <v>1</v>
       </c>
@@ -40258,7 +41096,11 @@
       </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="inlineStr"/>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1062" t="n">
         <v>1</v>
       </c>
@@ -40293,7 +41135,11 @@
       </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr"/>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1063" t="n">
         <v>1</v>
       </c>
@@ -40328,7 +41174,11 @@
       </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr"/>
-      <c r="L1064" t="inlineStr"/>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1064" t="n">
         <v>1</v>
       </c>
@@ -40363,7 +41213,11 @@
       </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr"/>
-      <c r="L1065" t="inlineStr"/>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1065" t="n">
         <v>1</v>
       </c>
@@ -40398,7 +41252,11 @@
       </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr"/>
-      <c r="L1066" t="inlineStr"/>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1066" t="n">
         <v>1</v>
       </c>
@@ -40433,7 +41291,11 @@
       </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr"/>
-      <c r="L1067" t="inlineStr"/>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1067" t="n">
         <v>1</v>
       </c>
@@ -40468,7 +41330,11 @@
       </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr"/>
-      <c r="L1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1068" t="n">
         <v>1</v>
       </c>
@@ -40503,7 +41369,11 @@
       </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr"/>
-      <c r="L1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1069" t="n">
         <v>1</v>
       </c>
@@ -40538,7 +41408,11 @@
       </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr"/>
-      <c r="L1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1070" t="n">
         <v>1</v>
       </c>
@@ -40573,7 +41447,11 @@
       </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr"/>
-      <c r="L1071" t="inlineStr"/>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1071" t="n">
         <v>1</v>
       </c>
@@ -40608,7 +41486,11 @@
       </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr"/>
-      <c r="L1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1072" t="n">
         <v>1</v>
       </c>
@@ -40643,7 +41525,11 @@
       </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr"/>
-      <c r="L1073" t="inlineStr"/>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1073" t="n">
         <v>1</v>
       </c>
@@ -40678,7 +41564,11 @@
       </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr"/>
-      <c r="L1074" t="inlineStr"/>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1074" t="n">
         <v>1</v>
       </c>
@@ -40713,7 +41603,11 @@
       </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr"/>
-      <c r="L1075" t="inlineStr"/>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1075" t="n">
         <v>1</v>
       </c>
@@ -40748,7 +41642,11 @@
       </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr"/>
-      <c r="L1076" t="inlineStr"/>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1076" t="n">
         <v>1</v>
       </c>
@@ -40783,7 +41681,11 @@
       </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr"/>
-      <c r="L1077" t="inlineStr"/>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1077" t="n">
         <v>1</v>
       </c>
@@ -40818,7 +41720,11 @@
       </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr"/>
-      <c r="L1078" t="inlineStr"/>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1078" t="n">
         <v>1</v>
       </c>
@@ -40853,7 +41759,11 @@
       </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr"/>
-      <c r="L1079" t="inlineStr"/>
+      <c r="L1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1079" t="n">
         <v>1</v>
       </c>
@@ -40888,7 +41798,11 @@
       </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr"/>
-      <c r="L1080" t="inlineStr"/>
+      <c r="L1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1080" t="n">
         <v>1</v>
       </c>
@@ -40923,7 +41837,11 @@
       </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr"/>
-      <c r="L1081" t="inlineStr"/>
+      <c r="L1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1081" t="n">
         <v>1</v>
       </c>
@@ -40958,7 +41876,11 @@
       </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr"/>
-      <c r="L1082" t="inlineStr"/>
+      <c r="L1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1082" t="n">
         <v>1</v>
       </c>
@@ -40993,7 +41915,11 @@
       </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr"/>
-      <c r="L1083" t="inlineStr"/>
+      <c r="L1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1083" t="n">
         <v>1</v>
       </c>
@@ -41028,7 +41954,11 @@
       </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr"/>
-      <c r="L1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1084" t="n">
         <v>1</v>
       </c>
@@ -41063,7 +41993,11 @@
       </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr"/>
-      <c r="L1085" t="inlineStr"/>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1085" t="n">
         <v>1</v>
       </c>
@@ -41098,7 +42032,11 @@
       </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr"/>
-      <c r="L1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1086" t="n">
         <v>1</v>
       </c>
@@ -41133,7 +42071,11 @@
       </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr"/>
-      <c r="L1087" t="inlineStr"/>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1087" t="n">
         <v>1</v>
       </c>
@@ -41168,7 +42110,11 @@
       </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr"/>
-      <c r="L1088" t="inlineStr"/>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1088" t="n">
         <v>1</v>
       </c>
@@ -41203,7 +42149,11 @@
       </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr"/>
-      <c r="L1089" t="inlineStr"/>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1089" t="n">
         <v>1</v>
       </c>
@@ -41238,7 +42188,11 @@
       </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="inlineStr"/>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1090" t="n">
         <v>1</v>
       </c>
@@ -41273,7 +42227,11 @@
       </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr"/>
-      <c r="L1091" t="inlineStr"/>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1091" t="n">
         <v>1</v>
       </c>
@@ -41308,7 +42266,11 @@
       </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr"/>
-      <c r="L1092" t="inlineStr"/>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1092" t="n">
         <v>1</v>
       </c>
@@ -41343,7 +42305,11 @@
       </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr"/>
-      <c r="L1093" t="inlineStr"/>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1093" t="n">
         <v>1</v>
       </c>
@@ -41378,7 +42344,11 @@
       </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr"/>
-      <c r="L1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1094" t="n">
         <v>1</v>
       </c>
@@ -41413,7 +42383,11 @@
       </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr"/>
-      <c r="L1095" t="inlineStr"/>
+      <c r="L1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1095" t="n">
         <v>1</v>
       </c>
@@ -41448,7 +42422,11 @@
       </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr"/>
-      <c r="L1096" t="inlineStr"/>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1096" t="n">
         <v>1</v>
       </c>
@@ -41483,7 +42461,11 @@
       </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr"/>
-      <c r="L1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1097" t="n">
         <v>1</v>
       </c>
@@ -41518,7 +42500,11 @@
       </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr"/>
-      <c r="L1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1098" t="n">
         <v>1</v>
       </c>
@@ -41553,7 +42539,11 @@
       </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr"/>
-      <c r="L1099" t="inlineStr"/>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1099" t="n">
         <v>1</v>
       </c>
@@ -41588,7 +42578,11 @@
       </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr"/>
-      <c r="L1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1100" t="n">
         <v>1</v>
       </c>
@@ -41623,7 +42617,11 @@
       </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr"/>
-      <c r="L1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1101" t="n">
         <v>1</v>
       </c>
@@ -41658,7 +42656,11 @@
       </c>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr"/>
-      <c r="L1102" t="inlineStr"/>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1102" t="n">
         <v>1</v>
       </c>
@@ -41693,7 +42695,11 @@
       </c>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr"/>
-      <c r="L1103" t="inlineStr"/>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1103" t="n">
         <v>1</v>
       </c>
@@ -41728,7 +42734,11 @@
       </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr"/>
-      <c r="L1104" t="inlineStr"/>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1104" t="n">
         <v>1</v>
       </c>
@@ -41763,7 +42773,11 @@
       </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr"/>
-      <c r="L1105" t="inlineStr"/>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1105" t="n">
         <v>1</v>
       </c>
@@ -41798,7 +42812,11 @@
       </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr"/>
-      <c r="L1106" t="inlineStr"/>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1106" t="n">
         <v>1</v>
       </c>
@@ -41833,7 +42851,11 @@
       </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="inlineStr"/>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1107" t="n">
         <v>1</v>
       </c>
@@ -41868,7 +42890,11 @@
       </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
-      <c r="L1108" t="inlineStr"/>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1108" t="n">
         <v>1</v>
       </c>
@@ -41903,7 +42929,11 @@
       </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr"/>
-      <c r="L1109" t="inlineStr"/>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1109" t="n">
         <v>1</v>
       </c>
@@ -41938,7 +42968,11 @@
       </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr"/>
-      <c r="L1110" t="inlineStr"/>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1110" t="n">
         <v>1</v>
       </c>
@@ -41973,7 +43007,11 @@
       </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
-      <c r="L1111" t="inlineStr"/>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1111" t="n">
         <v>1</v>
       </c>
@@ -42008,7 +43046,11 @@
       </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
-      <c r="L1112" t="inlineStr"/>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1112" t="n">
         <v>1</v>
       </c>
@@ -42043,7 +43085,11 @@
       </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr"/>
-      <c r="L1113" t="inlineStr"/>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1113" t="n">
         <v>1</v>
       </c>
@@ -42078,7 +43124,11 @@
       </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr"/>
-      <c r="L1114" t="inlineStr"/>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1114" t="n">
         <v>1</v>
       </c>
@@ -42113,7 +43163,11 @@
       </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr"/>
-      <c r="L1115" t="inlineStr"/>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1115" t="n">
         <v>1</v>
       </c>
@@ -42148,7 +43202,11 @@
       </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr"/>
-      <c r="L1116" t="inlineStr"/>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1116" t="n">
         <v>1</v>
       </c>
@@ -42183,7 +43241,11 @@
       </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr"/>
-      <c r="L1117" t="inlineStr"/>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1117" t="n">
         <v>1</v>
       </c>
@@ -42218,7 +43280,11 @@
       </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr"/>
-      <c r="L1118" t="inlineStr"/>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1118" t="n">
         <v>1</v>
       </c>
@@ -42253,7 +43319,11 @@
       </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
-      <c r="L1119" t="inlineStr"/>
+      <c r="L1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1119" t="n">
         <v>1</v>
       </c>
@@ -42288,7 +43358,11 @@
       </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr"/>
-      <c r="L1120" t="inlineStr"/>
+      <c r="L1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1120" t="n">
         <v>1</v>
       </c>
@@ -42323,7 +43397,11 @@
       </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr"/>
-      <c r="L1121" t="inlineStr"/>
+      <c r="L1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1121" t="n">
         <v>1</v>
       </c>
@@ -42358,7 +43436,11 @@
       </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr"/>
-      <c r="L1122" t="inlineStr"/>
+      <c r="L1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1122" t="n">
         <v>1</v>
       </c>
@@ -42393,7 +43475,11 @@
       </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr"/>
-      <c r="L1123" t="inlineStr"/>
+      <c r="L1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1123" t="n">
         <v>1</v>
       </c>
